--- a/output/product2_ebay.xlsx
+++ b/output/product2_ebay.xlsx
@@ -468,352 +468,352 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>For Samsung Galaxy S24 Ultra S23 Plus S22 S22 Shockproof Leather Slim Case Cover</t>
+          <t>Samsung Galaxy S23 Ultra SM-S918U - 512GB - Black (Unlocked)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>US $8.99</t>
+          <t>US $710.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/8tUAAOSwFJtkegFH/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/btcAAOSwaGNl4iQE/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>XG-Tech Wholesaler</t>
+          <t>klun_jef</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.6% positive</t>
+          <t>100% positive</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tempered Glass Screen Protector for Samsung Galaxy S24 Ultra/Plus Camera Protect</t>
+          <t>Samsung Galaxy S23+ SM-S916U - 256GB - Phantom Black (Carrier Unlocked)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>US $6.99/ea</t>
+          <t>US $629.98</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/7HQAAOSwb4dlqHLq/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/zkUAAOSwcXBk76f9/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>easywholesales</t>
+          <t>411 Phone Dude</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.7% positive</t>
+          <t>99.3% positive</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Open box</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>For Samsung Galaxy S24 Ultra Case S24 Plus S24 Poetic Built-in Screen Kickstand</t>
+          <t>Samsung Galaxy S23 Ultra - 256 GB - Cream (Unlocked)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>US $24.95/ea</t>
+          <t>US $625.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/LmgAAOSw4hZlqjcN/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/G2AAAOSwdoVl4XU-/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Poetic</t>
+          <t>313tharmymedic</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.5% positive</t>
+          <t>100% positive</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Shockproof Luxury Slim Leather Case For Samsung Galaxy S24 Ultra/ S24 Plus / S24</t>
+          <t>Samsung Galaxy S23 Ultra SM-S918U - 512GB - Green (Unlocked)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>US $18.69</t>
+          <t>US $590.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/nBUAAOSw9hJlqq0s/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/700AAOSwW9xl4RRO/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Robo bros 3C accessories</t>
+          <t>az1zu_a_9icrqxr</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.9% positive</t>
+          <t>100% positive</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra S928B 512GB GSM Unlocked International Version (New)</t>
+          <t>Samsung Galaxy S23 Ultra - 256 GB - Lite Green (Spectrum)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>US $1,369.99</t>
+          <t>US $510.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/aw4AAOSwcxRlrrS5/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/nyAAAOSw9GVl0nBH/s-l1600.png</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wireless Place</t>
+          <t>kramzh</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.3% positive</t>
+          <t>98.7% positive</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Ultra S928B 256GB GSM Unlocked International Version (New)</t>
+          <t>Samsung Galaxy S23 Ultra - 256 GB - Lite Green (Spectrum)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>US $1,239.99</t>
+          <t>US $510.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/4DgAAOSwG5ZlrrS4/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/nyAAAOSw9GVl0nBH/s-l1600.png</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wireless Place</t>
+          <t>kramzh</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.3% positive</t>
+          <t>98.7% positive</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shockproof Case For Samsung Galaxy S24 S23 S22 S20 Ultra Plus FE Phone Cover</t>
+          <t>Samsung Galaxy S23 SM-S911U - 128GB - Green (Carrier Unlocked)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GBP 3.99</t>
+          <t>US $479.98</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/7-UAAOSwDPplrP-u/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/Ph4AAOSwL0plHuL-/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Trends Tech Limited</t>
+          <t>411 Phone Dude</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.3% positive</t>
+          <t>99.3% positive</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Open box</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Phone Case For Samsung Galaxy S24 Ultra S23 FE S22 Card Slot Holder Wallet Cover</t>
+          <t>Samsung Galaxy S23 Ultra - 256 GB - Phantom Black (Unlocked)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GBP 3.99</t>
+          <t>US $450.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/9uEAAOSwFV9loP9M/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/hQoAAOSw7eFl0-pu/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>upupday2015</t>
+          <t>molus.xajiw3k</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>Seller's other items</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>For Samsung Galaxy S24+/S24 Ultra Case Slim Carbon Fibre Shockproof Phone Cover</t>
+          <t>Samsung Galaxy S23 SM-S911U - 128GB - Phantom Black Unlocked</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GBP 3.95</t>
+          <t>US $328.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/~WcAAOSwivdlt6~6/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/JeIAAOSwbL5lxtUg/s-l1600.png</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>pixfab</t>
+          <t>drw134019</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.7% positive</t>
+          <t>100% positive</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Case For Samsung Galaxy S24, S24 Ultra, S24 Plus Shockproof Hybrid Rugged Cover</t>
+          <t>Samsung Galaxy S23 Ultra - 256 GB - Graphite (Spectrum)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GBP 3.45</t>
+          <t>US $233.50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/VxsAAOSwvxllqTwO/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/a-oAAOSwbaxl08DW/s-l1600.png</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>cellmob</t>
+          <t>kramzh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>97.7% positive</t>
+          <t>98.7% positive</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>For Samsung Galaxy S24 S23 FE S22 S21 Ultra Plus Case Leather Wallet Phone Cover</t>
+          <t>Samsung Galaxy S23 Ultra 5G 256/512GB Dual SIM Unlocked Good Condition</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GBP 2.45</t>
+          <t>GBP 549.99</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/XWEAAOSwwXxj195p/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/SVEAAOSw3NhkS3L5/s-l1600.png</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>pixfab</t>
+          <t>quality used mobiles</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98.7% positive</t>
+          <t>98.9% positive</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Good - Refurbished</t>
         </is>
       </c>
     </row>

--- a/output/product2_ebay.xlsx
+++ b/output/product2_ebay.xlsx
@@ -468,22 +468,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 Ultra SM-S918U - 512GB - Black (Unlocked)</t>
+          <t>Apple Watch SE (2020, 1st Generation) 40mm Silver Aluminum Case, GPS &amp; Cellular</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>US $710.00</t>
+          <t>US $63.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/btcAAOSwaGNl4iQE/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/tg4AAOSwzvhl0pLX/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>klun_jef</t>
+          <t>nycmichaelg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,54 +500,54 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23+ SM-S916U - 256GB - Phantom Black (Carrier Unlocked)</t>
+          <t>Apple Watch Series 7 45mm Midnight Aluminum (Cellular + Gps) (READ DESCRIPTION)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>US $629.98</t>
+          <t>US $50.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/zkUAAOSwcXBk76f9/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/mEUAAOSwOo5l1pXw/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>411 Phone Dude</t>
+          <t>electronics-4u</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.3% positive</t>
+          <t>98.1% positive</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Open box</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 Ultra - 256 GB - Cream (Unlocked)</t>
+          <t>Apple Watch Series 4 44 mm Space Gray Aluminum Case with Black Sport Band (GPS)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>US $625.00</t>
+          <t>US $46.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/G2AAAOSwdoVl4XU-/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/K4AAAOSw0Hll0SkI/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>313tharmymedic</t>
+          <t>codejudeg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -564,27 +564,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 Ultra SM-S918U - 512GB - Green (Unlocked)</t>
+          <t>Apple Watch Series 7 45mm Midnight Aluminum (Cellular + Gps) (READ DESCRIPTION)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>US $590.00</t>
+          <t>US $46.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/700AAOSwW9xl4RRO/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/kakAAOSwNoxl1pn4/s-l1600.png</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>az1zu_a_9icrqxr</t>
+          <t>electronics-4u</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>100% positive</t>
+          <t>98.1% positive</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -596,187 +596,187 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 Ultra - 256 GB - Lite Green (Spectrum)</t>
+          <t>Apple Watch Series 8 - GPS + GSM Cellular 45mm Smart Watch - Excellent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>US $510.00</t>
+          <t>US $259.99</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/nyAAAOSw9GVl0nBH/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/tlwAAOSwDchkCM0c/s-l300.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>kramzh</t>
+          <t>Amazing Wireless</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.7% positive</t>
+          <t>99.4% positive</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Excellent - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 Ultra - 256 GB - Lite Green (Spectrum)</t>
+          <t>Apple Watch Series 8 GPS + GSM Aluminum - Cellular 41mm Smart Watch Excellent</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>US $510.00</t>
+          <t>US $239.99</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/nyAAAOSw9GVl0nBH/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/5wwAAOSwcxFjkQRs/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>kramzh</t>
+          <t>Amazing Wireless</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.7% positive</t>
+          <t>99.4% positive</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Excellent - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 SM-S911U - 128GB - Green (Carrier Unlocked)</t>
+          <t>Apple Watch Series 7 Titanium - GPS + Cellular, 41mm, Space Black, Mint</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>US $479.98</t>
+          <t>US $207.50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/Ph4AAOSwL0plHuL-/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/t7QAAOSw2JVlwTHJ/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>411 Phone Dude</t>
+          <t>jales-2807</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.3% positive</t>
+          <t>100% positive</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Open box</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 Ultra - 256 GB - Phantom Black (Unlocked)</t>
+          <t>Apple Watch SE Series (2nd Gen) GPS +Cellular 44mm Smart Watch - Excellent</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>US $450.00</t>
+          <t>US $172.99</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/hQoAAOSw7eFl0-pu/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/5W0AAOSwQcljePee/s-l300.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>molus.xajiw3k</t>
+          <t>Amazing Wireless</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Seller's other items</t>
+          <t>99.4% positive</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Excellent - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 SM-S911U - 128GB - Phantom Black Unlocked</t>
+          <t>Apple Watch Series SE (2nd Gen) GPS +Cellular 40mm Smart Watch - Excellent</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>US $328.00</t>
+          <t>US $159.99</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/JeIAAOSwbL5lxtUg/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/WY4AAOSwby5jePdF/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>drw134019</t>
+          <t>Amazing Wireless</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>100% positive</t>
+          <t>99.4% positive</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Excellent - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 Ultra - 256 GB - Graphite (Spectrum)</t>
+          <t>Apple Watch Series 7 41mm GPS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>US $233.50</t>
+          <t>US $132.50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/a-oAAOSwbaxl08DW/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/4coAAOSwh21l2iwf/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>kramzh</t>
+          <t>dutchmansapple</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.7% positive</t>
+          <t>98.6% positive</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -788,32 +788,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 Ultra 5G 256/512GB Dual SIM Unlocked Good Condition</t>
+          <t>RARE Apple Watch Edition Series 5 44mm - White Ceramic (GPS + LTE) *Model A2157</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GBP 549.99</t>
+          <t>AU $480.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/SVEAAOSw3NhkS3L5/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/LGUAAOSwJutlvvnG/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>quality used mobiles</t>
+          <t>njhurley</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98.9% positive</t>
+          <t>Seller's other items</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Good - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>

--- a/output/product2_ebay.xlsx
+++ b/output/product2_ebay.xlsx
@@ -468,59 +468,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple Watch SE (2020, 1st Generation) 40mm Silver Aluminum Case, GPS &amp; Cellular</t>
+          <t>Samsung Galaxy A14 5G (Latest) SM-A146U 64GB World Smartphone - Black Unlocked</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>US $63.00</t>
+          <t>US $95.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/tg4AAOSwzvhl0pLX/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/Ge8AAOSw6mhkSAKc/s-l1600.png</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>nycmichaelg</t>
+          <t>DailyExpressDeals</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100% positive</t>
+          <t>99.2% positive</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Open box</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apple Watch Series 7 45mm Midnight Aluminum (Cellular + Gps) (READ DESCRIPTION)</t>
+          <t>Samsung Galaxy S21 FE 5G SM-G990U - 128 GB - Gray (Verizon) Smartphone</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>US $50.00</t>
+          <t>US $92.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/mEUAAOSwOo5l1pXw/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/bEwAAOSwrhJlxEZI/s-l1600.png</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>electronics-4u</t>
+          <t>Yansalestore</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.1% positive</t>
+          <t>96.3% positive</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,27 +532,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple Watch Series 4 44 mm Space Gray Aluminum Case with Black Sport Band (GPS)</t>
+          <t>Galaxy Note 10 - 256GB - Unlocked (Read Description) BD1119</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>US $46.00</t>
+          <t>US $91.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/K4AAAOSw0Hll0SkI/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/l90AAOSwG35mBH19/s-l1600.png</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>codejudeg</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>100% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -564,27 +564,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apple Watch Series 7 45mm Midnight Aluminum (Cellular + Gps) (READ DESCRIPTION)</t>
+          <t>Galaxy S20 Ultra 5G - 128GB - Unlocked (Read Description) BD1391</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>US $46.00</t>
+          <t>US $61.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/kakAAOSwNoxl1pn4/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/nMMAAOSwvPdmBw9c/s-l1600.png</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>electronics-4u</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.1% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -596,187 +596,187 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Apple Watch Series 8 - GPS + GSM Cellular 45mm Smart Watch - Excellent</t>
+          <t>Factory Unlocked Samsung Galaxy S8 64GB SM-950u Good Condition Tested No AC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>US $259.99</t>
+          <t>US $59.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/tlwAAOSwDchkCM0c/s-l300.jpg</t>
+          <t>https://i.ebayimg.com/images/g/dvYAAOSwWIFl6NPq/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Amazing Wireless</t>
+          <t>Tech_Redo IT Equipment</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.4% positive</t>
+          <t>99.5% positive</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Apple Watch Series 8 GPS + GSM Aluminum - Cellular 41mm Smart Watch Excellent</t>
+          <t>Galaxy Z Fold2 5G - 256GB - Unlocked (Read Description) BD1090</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>US $239.99</t>
+          <t>US $31.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/5wwAAOSwcxFjkQRs/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/0AcAAOSwxxxmAd3B/s-l1600.png</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Amazing Wireless</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99.4% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>For parts or not working</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apple Watch Series 7 Titanium - GPS + Cellular, 41mm, Space Black, Mint</t>
+          <t>Samsung Galaxy A54 5G 128GB SM-A546 50 MP (Unlocked T-Mobile AT&amp;T) 2Day Fedex</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>US $207.50</t>
+          <t>US $199.99/ea</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/t7QAAOSw2JVlwTHJ/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/Yf4AAOSwieRk1ezK/s-l1600.png</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>jales-2807</t>
+          <t>FoneLogics</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>100% positive</t>
+          <t>98.3% positive</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Open box</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Apple Watch SE Series (2nd Gen) GPS +Cellular 44mm Smart Watch - Excellent</t>
+          <t>Samsung Galaxy S21 5G Unlocked G991U 128GB Android Smartphone Good</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>US $172.99</t>
+          <t>US $190.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/5W0AAOSwQcljePee/s-l300.jpg</t>
+          <t>https://i.ebayimg.com/images/g/IFUAAOSwQk9jcpV~/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Amazing Wireless</t>
+          <t>Big Moose Wireless</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.4% positive</t>
+          <t>99.2% positive</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>Good - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Apple Watch Series SE (2nd Gen) GPS +Cellular 40mm Smart Watch - Excellent</t>
+          <t>Samsung Galaxy S20 FE SM-G781U 128GB 5G GSM Unlocked - Good Condition</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>US $159.99</t>
+          <t>US $159.99/ea</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/WY4AAOSwby5jePdF/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/kBkAAOSwybRilTbJ/s-l300.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Amazing Wireless</t>
+          <t>dealscaly</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>99.4% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Excellent - Refurbished</t>
+          <t>Good - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Apple Watch Series 7 41mm GPS</t>
+          <t>Galaxy Note 20 Ultra 5G - 128GB - T-Mobile (Read Description) BC1143</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>US $132.50</t>
+          <t>US $152.50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/4coAAOSwh21l2iwf/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/UzcAAOSwxmBl~Jv1/s-l1600.png</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>dutchmansapple</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.6% positive</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -788,32 +788,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RARE Apple Watch Edition Series 5 44mm - White Ceramic (GPS + LTE) *Model A2157</t>
+          <t>Samsung Galaxy A14 5G SM-A146U - 64GB - Black GSM UNLOCKED - Very Good</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AU $480.00</t>
+          <t>US $114.99/ea</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/LGUAAOSwJutlvvnG/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/fQIAAOSwngplRxq2/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>njhurley</t>
+          <t>dealscaly</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Seller's other items</t>
+          <t>98.8% positive</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Very Good - Refurbished</t>
         </is>
       </c>
     </row>

--- a/output/product2_ebay.xlsx
+++ b/output/product2_ebay.xlsx
@@ -468,59 +468,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A14 5G (Latest) SM-A146U 64GB World Smartphone - Black Unlocked</t>
+          <t>Apple iPhone 14 Pro Max 256GB Network Unlocked Excellent Condition</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>US $95.00</t>
+          <t>US $847.99</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/Ge8AAOSw6mhkSAKc/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/WNkAAOSw4~JlFKk2/s-l300.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DailyExpressDeals</t>
+          <t>DirectAuth</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.2% positive</t>
+          <t>97.5% positive</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Open box</t>
+          <t>Excellent - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S21 FE 5G SM-G990U - 128 GB - Gray (Verizon) Smartphone</t>
+          <t>UNLOCKED - iPhone 14 Pro Max - Deep Purple - 128 GBS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>US $92.00</t>
+          <t>US $720.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/bEwAAOSwrhJlxEZI/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/B4MAAOSwtYpmKC4L/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yansalestore</t>
+          <t>alasas32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.3% positive</t>
+          <t>Seller's other items</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,241 +532,241 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Galaxy Note 10 - 256GB - Unlocked (Read Description) BD1119</t>
+          <t>Apple iPhone 14 Pro A2650 128GB Space Black Unlocked Very Good Condition</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>US $91.00</t>
+          <t>US $681.92</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/l90AAOSwG35mBH19/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/ptAAAOSwpZtksY6t/s-l300.jpg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Buyback Boss</t>
+          <t>DirectAuth</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>97.5% positive</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Very Good - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Galaxy S20 Ultra 5G - 128GB - Unlocked (Read Description) BD1391</t>
+          <t>Apple iPhone 14 - Unlocked - 128GB - Midnight MPUA3LLA Midnight New Sealed</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>US $61.00</t>
+          <t>US $560.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/nMMAAOSwvPdmBw9c/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/PTQAAOSw46dmH7BU/s-l300.jpg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Buyback Boss</t>
+          <t>DreaBeauty73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>99.3% positive</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Factory Unlocked Samsung Galaxy S8 64GB SM-950u Good Condition Tested No AC</t>
+          <t>Apple iPhone 14 Plus Smartphone A2632 128GB Unlocked Very Good</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>US $59.00</t>
+          <t>US $506.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/dvYAAOSwWIFl6NPq/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/PiMAAOSwXidmKUpn/s-l300.jpg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tech_Redo IT Equipment</t>
+          <t>loop-mobile</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.5% positive</t>
+          <t>99% positive</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Used</t>
+          <t>Very Good - Refurbished</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold2 5G - 256GB - Unlocked (Read Description) BD1090</t>
+          <t>Apple iPhone 14 Pro Max - Gold - 128GB - (Unlocked) - *FUNCTIONAL*</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>US $31.00</t>
+          <t>US $455.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/0AcAAOSwxxxmAd3B/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/qVkAAOSwx8VmKue~/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Buyback Boss</t>
+          <t>SamanthaTronics</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>98.9% positive</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>For parts or not working</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A54 5G 128GB SM-A546 50 MP (Unlocked T-Mobile AT&amp;T) 2Day Fedex</t>
+          <t>Apple iPhone 14 Pro Max A2651 Spectrum Only 128GB 5G Smart Phone / Deep Purple</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>US $199.99/ea</t>
+          <t>US $445.03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/Yf4AAOSwieRk1ezK/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/rJIAAOSwlWdmFut9/s-l1600.jpg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FoneLogics</t>
+          <t>CommCentral</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.3% positive</t>
+          <t>97.8% positive</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Open box</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S21 5G Unlocked G991U 128GB Android Smartphone Good</t>
+          <t>iPhone 12 Pro Max - 256GB - Unlocked (Read Description) BH1099</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>US $190.00</t>
+          <t>US $355.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/IFUAAOSwQk9jcpV~/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/fFYAAOSwYm5mKrrk/s-l300.png</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Big Moose Wireless</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.2% positive</t>
+          <t>98.9% positive</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Good - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S20 FE SM-G781U 128GB 5G GSM Unlocked - Good Condition</t>
+          <t>Apple iPhone 12 128GB Factory Unlocked GSM + CDMA BLUE Excellent!</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>US $159.99/ea</t>
+          <t>US $265.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/kBkAAOSwybRilTbJ/s-l300.jpg</t>
+          <t>https://i.ebayimg.com/images/g/LvoAAOSwZoFmA0MB/s-l300.jpg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>dealscaly</t>
+          <t>Yugi_Runs</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>99.4% positive</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Good - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Galaxy Note 20 Ultra 5G - 128GB - T-Mobile (Read Description) BC1143</t>
+          <t>iPhone 14 - 128GB - T-Mobile (Read Description) BH1154</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>US $152.50</t>
+          <t>US $222.50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/UzcAAOSwxmBl~Jv1/s-l1600.png</t>
+          <t>https://i.ebayimg.com/images/g/9cMAAOSwcudmKsS3/s-l300.png</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>98.9% positive</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -788,32 +788,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A14 5G SM-A146U - 64GB - Black GSM UNLOCKED - Very Good</t>
+          <t>iPhone 11 Pro Max - 64GB - Unlocked (Read Description) BG1093</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>US $114.99/ea</t>
+          <t>US $175.50</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://i.ebayimg.com/images/g/fQIAAOSwngplRxq2/s-l1600.jpg</t>
+          <t>https://i.ebayimg.com/images/g/SoIAAOSwHp5mIBLD/s-l1600.png</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>dealscaly</t>
+          <t>Buyback Boss</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98.8% positive</t>
+          <t>98.9% positive</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Very Good - Refurbished</t>
+          <t>Used</t>
         </is>
       </c>
     </row>
